--- a/FH-task2/pafam_optimization_results_2024_11_13_16_27.xlsx
+++ b/FH-task2/pafam_optimization_results_2024_11_13_16_27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\Tesi\file\Task\FH-task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8126F4-8FA6-43A8-9C6C-26342F33F281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E9E62-C90F-4158-AE70-7D5DD538BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34632,8 +34632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35475,43 +35475,43 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G20" t="s">
+      <c r="K20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H20" t="s">
+      <c r="L20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>101</v>
       </c>
       <c r="N20" t="s">
